--- a/tests/data/date.xlsx
+++ b/tests/data/date.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t xml:space="preserve">FirstName</t>
   </si>
@@ -68,6 +68,15 @@
   </si>
   <si>
     <t xml:space="preserve">future</t>
+  </si>
+  <si>
+    <t xml:space="preserve">empty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00/00/0000</t>
   </si>
 </sst>
 </file>
@@ -166,7 +175,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -200,6 +209,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -386,10 +399,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+      <selection pane="topLeft" activeCell="G27" activeCellId="0" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -544,14 +557,34 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="8" t="n">
         <v>807811</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/tests/data/date.xlsx
+++ b/tests/data/date.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="56">
   <si>
     <t xml:space="preserve">FirstName</t>
   </si>
@@ -77,18 +77,171 @@
   </si>
   <si>
     <t xml:space="preserve">00/00/0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">format1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">format2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">format3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">format4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">format5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">format6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">format7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">format8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">format9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">format10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">format11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">format12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">format13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">format14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">format15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">format16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">format17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buggy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">format18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">format19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">format20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">format21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">format22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">format23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">format24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">format25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">format26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">format27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">format28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">format29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">format30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">debug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">format31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">format32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">weekFormat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">supported</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="47">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="d/mm/yyyy"/>
     <numFmt numFmtId="166" formatCode="d/mm/yyyy\ h:mm"/>
     <numFmt numFmtId="167" formatCode="hh:mm:ss"/>
     <numFmt numFmtId="168" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="169" formatCode="d/mm/yy"/>
+    <numFmt numFmtId="170" formatCode="hh:mm"/>
+    <numFmt numFmtId="171" formatCode="dddd&quot;, &quot;d\ mmmm\ yyyy"/>
+    <numFmt numFmtId="172" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="173" formatCode="hh:mm\ AM/PM"/>
+    <numFmt numFmtId="174" formatCode="hh:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="175" formatCode="d\ mmm\ yy"/>
+    <numFmt numFmtId="176" formatCode="[hh]:mm:ss"/>
+    <numFmt numFmtId="177" formatCode="d\ mmm\ yyyy"/>
+    <numFmt numFmtId="178" formatCode="mm:ss.00"/>
+    <numFmt numFmtId="179" formatCode="d&quot;. &quot;mmm\ yyyy"/>
+    <numFmt numFmtId="180" formatCode="[hh]:mm:ss.00"/>
+    <numFmt numFmtId="181" formatCode="d\ mmmm\ yyyy"/>
+    <numFmt numFmtId="182" formatCode="h:mm\ AM/PM"/>
+    <numFmt numFmtId="183" formatCode="d&quot;. &quot;mmmm\ yyyy"/>
+    <numFmt numFmtId="184" formatCode="h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="185" formatCode="ddd\ d\ mmm\ yy"/>
+    <numFmt numFmtId="186" formatCode="h:mm"/>
+    <numFmt numFmtId="187" formatCode="ddd\ dd/mmm\ yy"/>
+    <numFmt numFmtId="188" formatCode="h:mm:ss"/>
+    <numFmt numFmtId="189" formatCode="ddd\ d\ mmmm\ yyyy"/>
+    <numFmt numFmtId="190" formatCode="mm:ss"/>
+    <numFmt numFmtId="191" formatCode="mm\-dd"/>
+    <numFmt numFmtId="192" formatCode="[h]:mm:ss"/>
+    <numFmt numFmtId="193" formatCode="yy\-mm\-dd"/>
+    <numFmt numFmtId="194" formatCode="mm:ss.0"/>
+    <numFmt numFmtId="195" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="196" formatCode="mm/yy"/>
+    <numFmt numFmtId="197" formatCode="dd/mmm"/>
+    <numFmt numFmtId="198" formatCode="mmmm"/>
+    <numFmt numFmtId="199" formatCode="QQ\ yy"/>
+    <numFmt numFmtId="200" formatCode="WW"/>
+    <numFmt numFmtId="201" formatCode="d\-mmm\-yy"/>
+    <numFmt numFmtId="202" formatCode="d\-mmm"/>
+    <numFmt numFmtId="203" formatCode="mmm\-yy"/>
+    <numFmt numFmtId="204" formatCode="dd/mm/yyyy\ hh:mm"/>
+    <numFmt numFmtId="205" formatCode="dd/mm/yy\ hh:mm"/>
+    <numFmt numFmtId="206" formatCode="dd/mm/yyyy\ hh:mm:ss"/>
+    <numFmt numFmtId="207" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="208" formatCode="yyyy\-mm\-dd\ hh:mm:ss.000"/>
+    <numFmt numFmtId="209" formatCode="yyyy\-mm\-dd\Thh:mm:ss"/>
+    <numFmt numFmtId="210" formatCode="yyyy\-mm\-dd\Thh:mm:ss.000"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -175,7 +328,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="51">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -212,7 +365,171 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="189" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="190" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="191" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="192" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="193" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="194" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="196" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="197" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="198" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="199" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="200" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="201" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="202" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="203" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="204" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="205" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="206" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="207" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="208" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="209" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="210" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -399,16 +716,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G27" activeCellId="0" sqref="G27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G41" activeCellId="0" sqref="G41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="23.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="34.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="23.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -574,7 +892,7 @@
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="9"/>
+      <c r="D10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
@@ -585,6 +903,362 @@
       </c>
       <c r="D11" s="8" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="9" t="n">
+        <v>-105</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="10" t="n">
+        <v>0.646180555555556</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="11" t="n">
+        <v>-105</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="7" t="n">
+        <v>0.646180555555556</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="12" t="n">
+        <v>-105</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="13" t="n">
+        <v>0.646180555555556</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="8" t="n">
+        <v>-105</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="14" t="n">
+        <v>0.646180555555556</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="15" t="n">
+        <v>-105</v>
+      </c>
+      <c r="E16" s="15"/>
+      <c r="F16" s="16" t="n">
+        <v>0.646180555555556</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="17" t="n">
+        <v>-105</v>
+      </c>
+      <c r="E17" s="17"/>
+      <c r="F17" s="18" t="n">
+        <v>0.646180555555556</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="19" t="n">
+        <v>-105</v>
+      </c>
+      <c r="E18" s="19"/>
+      <c r="F18" s="20" t="n">
+        <v>0.646180555555556</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="21" t="n">
+        <v>-105</v>
+      </c>
+      <c r="E19" s="21"/>
+      <c r="F19" s="22" t="n">
+        <v>0.646180555555556</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="23" t="n">
+        <v>-105</v>
+      </c>
+      <c r="E20" s="23"/>
+      <c r="F20" s="24" t="n">
+        <v>0.646180555555556</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="25" t="n">
+        <v>-105</v>
+      </c>
+      <c r="E21" s="25"/>
+      <c r="F21" s="26" t="n">
+        <v>0.646180555555556</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="27" t="n">
+        <v>-105</v>
+      </c>
+      <c r="E22" s="27"/>
+      <c r="F22" s="28" t="n">
+        <v>0.646180555555556</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="29" t="n">
+        <v>-105</v>
+      </c>
+      <c r="E23" s="29"/>
+      <c r="F23" s="30" t="n">
+        <v>0.646180555555556</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="31" t="n">
+        <v>-105</v>
+      </c>
+      <c r="E24" s="31"/>
+      <c r="F24" s="32" t="n">
+        <v>0.646180555555556</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="33" t="n">
+        <v>-105</v>
+      </c>
+      <c r="E25" s="33"/>
+      <c r="F25" s="34" t="n">
+        <v>0.646180555555556</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="35" t="n">
+        <v>-105</v>
+      </c>
+      <c r="E26" s="35"/>
+      <c r="F26" s="34" t="n">
+        <v>0.646180555555556</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="36" t="n">
+        <v>-105</v>
+      </c>
+      <c r="E27" s="36"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="37" t="n">
+        <v>-105</v>
+      </c>
+      <c r="E28" s="37"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="38" t="n">
+        <v>-105</v>
+      </c>
+      <c r="E29" s="38"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="39" t="n">
+        <v>-105</v>
+      </c>
+      <c r="E30" s="39"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="5" t="n">
+        <v>-105</v>
+      </c>
+      <c r="E31" s="40"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="5" t="n">
+        <v>-105</v>
+      </c>
+      <c r="E32" s="5"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="41" t="n">
+        <v>-105</v>
+      </c>
+      <c r="E33" s="41"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="42" t="n">
+        <v>-105</v>
+      </c>
+      <c r="E34" s="42"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" s="43" t="n">
+        <v>-105</v>
+      </c>
+      <c r="E35" s="43"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" s="6" t="n">
+        <v>-105</v>
+      </c>
+      <c r="E36" s="6"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" s="44" t="n">
+        <v>-105</v>
+      </c>
+      <c r="E37" s="44"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" s="45" t="n">
+        <v>-105</v>
+      </c>
+      <c r="E38" s="45"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" s="46" t="n">
+        <v>-105</v>
+      </c>
+      <c r="E39" s="46"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" s="47" t="n">
+        <v>-105</v>
+      </c>
+      <c r="E40" s="47"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" s="48" t="n">
+        <v>-105</v>
+      </c>
+      <c r="E41" s="48"/>
+      <c r="G41" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D42" s="49" t="n">
+        <v>-105</v>
+      </c>
+      <c r="E42" s="49"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D43" s="50" t="n">
+        <v>-105</v>
+      </c>
+      <c r="E43" s="50"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45" s="40" t="n">
+        <v>-105</v>
       </c>
     </row>
   </sheetData>
